--- a/data/final_data.xlsx
+++ b/data/final_data.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\Document\NTHU\master\Final\HRC_taskalloc_w.TB_w.AR\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583D2740-C8E9-41DC-98AD-01B837D5672A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D70EF6-884D-4936-A32E-D6F8789FAE8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6300" yWindow="2370" windowWidth="21600" windowHeight="11835" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Therbligs1" sheetId="4" r:id="rId1"/>
-    <sheet name="Therbligs2" sheetId="7" r:id="rId2"/>
-    <sheet name="Therbligs3" sheetId="13" r:id="rId3"/>
-    <sheet name="Therbligs4" sheetId="10" r:id="rId4"/>
+    <sheet name="Therbligs2" sheetId="10" r:id="rId2"/>
+    <sheet name="Therbligs3" sheetId="7" r:id="rId3"/>
+    <sheet name="Therbligs4" sheetId="13" r:id="rId4"/>
     <sheet name="Therbligs5" sheetId="16" r:id="rId5"/>
     <sheet name="Therbligs6" sheetId="14" r:id="rId6"/>
     <sheet name="Therbligs7" sheetId="15" r:id="rId7"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="54">
   <si>
     <t>From</t>
   </si>
@@ -149,12 +149,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>DA5_TOP</t>
-  </si>
-  <si>
-    <t>DA6_TOP</t>
-  </si>
-  <si>
     <t>A1_TOP</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -169,32 +163,69 @@
     <t>A7_TOP</t>
   </si>
   <si>
-    <t>DA6_TOP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>BIN1_TOP</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>DA5_TOP</t>
+    <t>C1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>A12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Obj</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>END</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A7_TOP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WP8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WP8_TOP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WP5_TOP</t>
+  </si>
+  <si>
+    <t>DA3_TOP</t>
+  </si>
+  <si>
+    <t>DA4_TOP</t>
+  </si>
+  <si>
+    <t>WP5</t>
+  </si>
+  <si>
+    <t>WP6_TOP</t>
+  </si>
+  <si>
     <t>WP6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>WP5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>WP5_TOP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>WP6_TOP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -564,7 +595,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D22"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,11 +622,9 @@
         <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -635,7 +664,9 @@
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -659,7 +690,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>11</v>
@@ -672,10 +703,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -683,10 +717,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -694,80 +731,76 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="D11" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="D12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>35</v>
+      <c r="B14" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>35</v>
+        <v>15</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -775,10 +808,10 @@
         <v>9</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>11</v>
@@ -786,24 +819,27 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>11</v>
@@ -811,84 +847,153 @@
     </row>
     <row r="18" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D19" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="D23" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="E24" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="D25" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="D26" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="B27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
+      <c r="A28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
+      <c r="A29" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
@@ -901,14 +1006,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87F72247-F90F-460C-969E-3FD4E13BCCF1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF35DF69-A80A-462C-809E-B7E3AFB0C540}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -936,16 +1041,16 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -982,7 +1087,7 @@
         <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>11</v>
@@ -990,175 +1095,376 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+      <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="A11" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
+      <c r="A13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="D32" s="1"/>
+      <c r="A15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
+      <c r="A33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="D34" s="1"/>
+      <c r="A34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
+      <c r="A35" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
+      <c r="D36" s="1"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-      <c r="D42" s="1"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-      <c r="D46" s="1"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
-      <c r="D50" s="1"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
@@ -1168,17 +1474,17 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
+      <c r="D53" s="1"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
+      <c r="D54" s="1"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="D55" s="1"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="D56" s="1"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
@@ -1188,26 +1494,20 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
+      <c r="D59" s="1"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
-      <c r="D61" s="1"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
+      <c r="D62" s="1"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
-      <c r="D64" s="1"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1217,14 +1517,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3DA803D-B205-48CA-91EE-6164C5EEFE0C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87F72247-F90F-460C-969E-3FD4E13BCCF1}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1248,7 +1548,9 @@
       <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1259,7 +1561,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>11</v>
@@ -1270,10 +1572,10 @@
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
@@ -1284,10 +1586,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>26</v>
+        <v>51</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1295,10 +1600,10 @@
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>11</v>
@@ -1309,7 +1614,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>19</v>
@@ -1323,14 +1628,33 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
@@ -1533,14 +1857,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF35DF69-A80A-462C-809E-B7E3AFB0C540}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3DA803D-B205-48CA-91EE-6164C5EEFE0C}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1564,380 +1888,257 @@
       <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>32</v>
+        <v>53</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
+      <c r="A4" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>53</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>42</v>
+        <v>52</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>4</v>
+      <c r="A8" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
+      <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
+      <c r="D34" s="1"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="D36" s="1"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
+      <c r="D38" s="1"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="D40" s="1"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
+      <c r="D42" s="1"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
-      <c r="D44" s="1"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
+      <c r="D46" s="1"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
-      <c r="D48" s="1"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
+      <c r="D50" s="1"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
@@ -1947,17 +2148,17 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
-      <c r="D53" s="1"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
-      <c r="D54" s="1"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
+      <c r="D55" s="1"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
+      <c r="D56" s="1"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
@@ -1967,20 +2168,26 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
-      <c r="D59" s="1"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
+      <c r="D61" s="1"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
-      <c r="D62" s="1"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="1"/>
+      <c r="D64" s="1"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1994,10 +2201,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2092,7 +2299,7 @@
         <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>11</v>
@@ -2105,10 +2312,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -2116,10 +2323,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -2127,116 +2334,110 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="D11" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D14" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>11</v>
@@ -2244,82 +2445,144 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D22" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="D23" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="D25" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="D26" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
+      <c r="B27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2335,7 +2598,7 @@
   <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2437,14 +2700,27 @@
         <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
@@ -2654,7 +2930,7 @@
   <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2756,14 +3032,27 @@
         <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
